--- a/game_data_final/Olympiacos - Spandau.xlsx
+++ b/game_data_final/Olympiacos - Spandau.xlsx
@@ -12,29 +12,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="117">
   <si>
     <t>comments</t>
   </si>
   <si>
+    <t>Number of Passes</t>
+  </si>
+  <si>
+    <t>Passing Sequence</t>
+  </si>
+  <si>
     <t>If 3 had put it anywhere but the bar it would have gone in</t>
   </si>
   <si>
+    <t>Shooter Number</t>
+  </si>
+  <si>
+    <t>Shooter Position</t>
+  </si>
+  <si>
     <t>6_in happened first - people were still swimming to position so passed ball away, 1_in then happened with ball and 6 followed 4 in without ball</t>
   </si>
   <si>
-    <t>Number of Passes</t>
-  </si>
-  <si>
-    <t>Passing Sequence</t>
-  </si>
-  <si>
-    <t>Shooter Number</t>
-  </si>
-  <si>
-    <t>Shooter Position</t>
-  </si>
-  <si>
     <t>Shooter Hand</t>
   </si>
   <si>
@@ -50,6 +50,9 @@
     <t>Block</t>
   </si>
   <si>
+    <t>1 and 6 went in together again with 1 having ball</t>
+  </si>
+  <si>
     <t>Skip</t>
   </si>
   <si>
@@ -59,30 +62,33 @@
     <t>Shot Position</t>
   </si>
   <si>
+    <t>camera cut away at start so I infered 3-&gt;6 as I didn't see it but ball was fouled at 3 and 5 recieved a pass from their right. Also dropped pass was stolen</t>
+  </si>
+  <si>
     <t>Shot Location</t>
   </si>
   <si>
-    <t>1 and 6 went in together again with 1 having ball</t>
-  </si>
-  <si>
     <t>Assisting Player Number</t>
   </si>
   <si>
     <t>Assisting Player Position</t>
   </si>
   <si>
+    <t>timeout was delayed by a few seconds. Goalie block but was funneled by shotblockers</t>
+  </si>
+  <si>
     <t>Assisting Player Hand</t>
   </si>
   <si>
     <t>Rotation Type</t>
   </si>
   <si>
+    <t>to 2 was tiped so 2 barley had time to control,on 6 _in everyone roated back to starting</t>
+  </si>
+  <si>
     <t>Timeout</t>
   </si>
   <si>
-    <t>camera cut away at start so I infered 3-&gt;6 as I didn't see it but ball was fouled at 3 and 5 recieved a pass from their right. Also dropped pass was stolen</t>
-  </si>
-  <si>
     <t>Team</t>
   </si>
   <si>
@@ -98,24 +104,27 @@
     <t>End Time</t>
   </si>
   <si>
-    <t>timeout was delayed by a few seconds. Goalie block but was funneled by shotblockers</t>
-  </si>
-  <si>
     <t>Dropped Ball</t>
   </si>
   <si>
     <t>Kickout Position</t>
   </si>
   <si>
-    <t>to 2 was tiped so 2 barley had time to control,on 6 _in everyone roated back to starting</t>
-  </si>
-  <si>
     <t>first few passes were waiting for people to swim in postion</t>
   </si>
   <si>
+    <t>End 3-3</t>
+  </si>
+  <si>
     <t>5 -&gt; 1 drop pass</t>
   </si>
   <si>
+    <t>5m</t>
+  </si>
+  <si>
+    <t>Link to Play</t>
+  </si>
+  <si>
     <t>yellow card. Was an ejection at the end of the 6-5 so counted that into the next one. 1_in happened no one moved. Passed around to 6_in then ejection happened here</t>
   </si>
   <si>
@@ -125,61 +134,55 @@
     <t>was a pass out of set into immediate timeout that I am not counting. are in 3-3 for last 5 seconds of 6-5 as become even</t>
   </si>
   <si>
-    <t>5m</t>
-  </si>
-  <si>
-    <t>Link to Play</t>
-  </si>
-  <si>
     <t>kicked out player (3) was rolled. This gave offense time to set up. Unable to see first pass. Very uncertain about assisting player number</t>
   </si>
   <si>
+    <t>[5,6,5,1,4,1,3]</t>
+  </si>
+  <si>
     <t>kickout happened in transition so counting it as backcourt but was close to set up. May have missed passes due to camer cuts</t>
   </si>
   <si>
+    <t>none</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ball was deflected with 8 seconds of 6-5 left but camera cut meant did not see and just became even </t>
   </si>
   <si>
+    <t>not_on_cage</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
     <t>I wonder if another thing we could look at is when timeouts are called</t>
   </si>
   <si>
-    <t>[5,6,5,1,4,1,3]</t>
+    <t>4_center, 1_in, 5_center, 6_pocket, 3_in</t>
   </si>
   <si>
     <t>---&gt; trust coaches gut more than data</t>
   </si>
   <si>
-    <t>none</t>
+    <t>Spandau</t>
   </si>
   <si>
     <t xml:space="preserve">Maybe data collection could also be framed in that we are finding data that coaches/players want to know </t>
   </si>
   <si>
-    <t>not_on_cage</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
     <t>i.e., When event X happens we do action Y for the reason Z</t>
   </si>
   <si>
-    <t>4_center, 1_in, 5_center, 6_pocket, 3_in</t>
-  </si>
-  <si>
     <t>If this were the case in situation X we would measure A and B</t>
   </si>
   <si>
-    <t>Spandau</t>
-  </si>
-  <si>
     <t>Can't stand these cut away shots that cut out game footage</t>
   </si>
   <si>
+    <t>https://youtu.be/Uq0E_9BUdbo?list=PLM0Gdq8tevj8Iw8wNjjC64NaKoxHBeZG-&amp;t=395</t>
+  </si>
+  <si>
     <t>Wonder how order of rotation and timing of when rotate affects</t>
-  </si>
-  <si>
-    <t>https://youtu.be/Uq0E_9BUdbo?list=PLM0Gdq8tevj8Iw8wNjjC64NaKoxHBeZG-&amp;t=395</t>
   </si>
   <si>
     <t>[5,6,4,1,4,6,5,4,2]</t>
@@ -366,9 +369,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m-d"/>
-  </numFmts>
   <fonts count="5">
     <font>
       <sz val="10.0"/>
@@ -408,14 +408,11 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -461,16 +458,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -485,61 +482,61 @@
         <v>11</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>43527.0</v>
+        <v>31</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -547,7 +544,7 @@
         <v>6.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1">
         <v>4.0</v>
@@ -565,19 +562,19 @@
         <v>0.0</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M2" s="1">
         <v>9.0</v>
@@ -589,24 +586,24 @@
         <v>1.0</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Q2" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="S2" s="1">
         <v>0.0</v>
       </c>
       <c r="T2" s="1">
         <v>1.0</v>
       </c>
-      <c r="U2" s="4">
+      <c r="U2" s="3">
         <v>0.30069444444444443</v>
       </c>
-      <c r="V2" s="4">
+      <c r="V2" s="3">
         <v>0.2916666666666667</v>
       </c>
       <c r="W2" s="1">
@@ -621,7 +618,7 @@
       <c r="Z2" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AA2" s="5" t="s">
         <v>55</v>
       </c>
     </row>
@@ -630,7 +627,7 @@
         <v>9.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" s="1">
         <v>12.0</v>
@@ -648,7 +645,7 @@
         <v>0.0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I3" s="1">
         <v>1.0</v>
@@ -657,10 +654,10 @@
         <v>0.0</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M3" s="1">
         <v>5.0</v>
@@ -672,13 +669,13 @@
         <v>1.0</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q3" s="1">
         <v>0.0</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S3" s="1">
         <v>0.0</v>
@@ -686,10 +683,10 @@
       <c r="T3" s="1">
         <v>1.0</v>
       </c>
-      <c r="U3" s="4">
+      <c r="U3" s="3">
         <v>0.020833333333333332</v>
       </c>
-      <c r="V3" s="4">
+      <c r="V3" s="3">
         <v>0.010416666666666666</v>
       </c>
       <c r="W3" s="1">
@@ -704,8 +701,8 @@
       <c r="Z3" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA3" s="6" t="s">
-        <v>62</v>
+      <c r="AA3" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="4">
@@ -713,16 +710,16 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F4" s="1">
         <v>1.0</v>
@@ -731,7 +728,7 @@
         <v>0.0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I4" s="1">
         <v>0.0</v>
@@ -740,28 +737,28 @@
         <v>0.0</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q4" s="1">
         <v>0.0</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S4" s="1">
         <v>1.0</v>
@@ -769,10 +766,10 @@
       <c r="T4" s="1">
         <v>1.0</v>
       </c>
-      <c r="U4" s="4">
+      <c r="U4" s="3">
         <v>0.010416666666666666</v>
       </c>
-      <c r="V4" s="4">
+      <c r="V4" s="3">
         <v>0.00625</v>
       </c>
       <c r="W4" s="1">
@@ -787,8 +784,8 @@
       <c r="Z4" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA4" s="6" t="s">
-        <v>64</v>
+      <c r="AA4" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -796,7 +793,7 @@
         <v>6.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5" s="1">
         <v>5.0</v>
@@ -811,19 +808,19 @@
         <v>0.0</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="L5" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M5" s="1">
         <v>2.0</v>
@@ -835,13 +832,13 @@
         <v>1.0</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q5" s="1">
         <v>0.0</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S5" s="1">
         <v>0.0</v>
@@ -849,10 +846,10 @@
       <c r="T5" s="1">
         <v>2.0</v>
       </c>
-      <c r="U5" s="4">
+      <c r="U5" s="3">
         <v>0.24305555555555555</v>
       </c>
-      <c r="V5" s="4">
+      <c r="V5" s="3">
         <v>0.23472222222222222</v>
       </c>
       <c r="W5" s="1">
@@ -867,8 +864,8 @@
       <c r="Z5" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA5" s="6" t="s">
-        <v>67</v>
+      <c r="AA5" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="6">
@@ -876,16 +873,16 @@
         <v>6.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F6" s="1">
         <v>0.0</v>
@@ -894,7 +891,7 @@
         <v>0.0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I6" s="1">
         <v>0.0</v>
@@ -903,28 +900,28 @@
         <v>0.0</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q6" s="1">
         <v>0.0</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S6" s="1">
         <v>1.0</v>
@@ -932,10 +929,10 @@
       <c r="T6" s="1">
         <v>2.0</v>
       </c>
-      <c r="U6" s="4">
+      <c r="U6" s="3">
         <v>0.15833333333333333</v>
       </c>
-      <c r="V6" s="4">
+      <c r="V6" s="3">
         <v>0.14583333333333334</v>
       </c>
       <c r="W6" s="1">
@@ -950,8 +947,8 @@
       <c r="Z6" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA6" s="6" t="s">
-        <v>70</v>
+      <c r="AA6" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="7">
@@ -959,7 +956,7 @@
         <v>10.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C7" s="1">
         <v>3.0</v>
@@ -977,7 +974,7 @@
         <v>0.0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I7" s="1">
         <v>0.0</v>
@@ -986,10 +983,10 @@
         <v>0.0</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M7" s="1">
         <v>4.0</v>
@@ -1001,13 +998,13 @@
         <v>1.0</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q7" s="1">
         <v>1.0</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S7" s="1">
         <v>0.0</v>
@@ -1015,10 +1012,10 @@
       <c r="T7" s="1">
         <v>2.0</v>
       </c>
-      <c r="U7" s="4">
+      <c r="U7" s="3">
         <v>0.1451388888888889</v>
       </c>
-      <c r="V7" s="4">
+      <c r="V7" s="3">
         <v>0.13055555555555556</v>
       </c>
       <c r="W7" s="1">
@@ -1033,8 +1030,8 @@
       <c r="Z7" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA7" s="6" t="s">
-        <v>75</v>
+      <c r="AA7" s="5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="8">
@@ -1042,7 +1039,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C8" s="1">
         <v>5.0</v>
@@ -1060,7 +1057,7 @@
         <v>0.0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I8" s="1">
         <v>0.0</v>
@@ -1069,10 +1066,10 @@
         <v>0.0</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M8" s="1">
         <v>4.0</v>
@@ -1084,13 +1081,13 @@
         <v>1.0</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q8" s="1">
         <v>0.0</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S8" s="1">
         <v>0.0</v>
@@ -1098,10 +1095,10 @@
       <c r="T8" s="1">
         <v>2.0</v>
       </c>
-      <c r="U8" s="4">
+      <c r="U8" s="3">
         <v>0.018055555555555554</v>
       </c>
-      <c r="V8" s="4">
+      <c r="V8" s="3">
         <v>0.004861111111111111</v>
       </c>
       <c r="W8" s="1">
@@ -1116,8 +1113,8 @@
       <c r="Z8" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA8" s="6" t="s">
-        <v>78</v>
+      <c r="AA8" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="9">
@@ -1125,7 +1122,7 @@
         <v>9.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C9" s="1">
         <v>10.0</v>
@@ -1143,7 +1140,7 @@
         <v>1.0</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I9" s="1">
         <v>0.0</v>
@@ -1152,10 +1149,10 @@
         <v>0.0</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="1">
         <v>11.0</v>
@@ -1167,13 +1164,13 @@
         <v>0.0</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q9" s="1">
         <v>0.0</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S9" s="1">
         <v>0.0</v>
@@ -1181,10 +1178,10 @@
       <c r="T9" s="1">
         <v>3.0</v>
       </c>
-      <c r="U9" s="4">
+      <c r="U9" s="3">
         <v>0.30694444444444446</v>
       </c>
-      <c r="V9" s="4">
+      <c r="V9" s="3">
         <v>0.2916666666666667</v>
       </c>
       <c r="W9" s="1">
@@ -1199,8 +1196,8 @@
       <c r="Z9" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA9" s="6" t="s">
-        <v>81</v>
+      <c r="AA9" s="5" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="10">
@@ -1208,7 +1205,7 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C10" s="1">
         <v>5.0</v>
@@ -1226,7 +1223,7 @@
         <v>0.0</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I10" s="1">
         <v>0.0</v>
@@ -1235,10 +1232,10 @@
         <v>0.0</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M10" s="1">
         <v>8.0</v>
@@ -1250,13 +1247,13 @@
         <v>1.0</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q10" s="1">
         <v>0.0</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S10" s="1">
         <v>0.0</v>
@@ -1264,10 +1261,10 @@
       <c r="T10" s="1">
         <v>3.0</v>
       </c>
-      <c r="U10" s="4">
+      <c r="U10" s="3">
         <v>0.23194444444444445</v>
       </c>
-      <c r="V10" s="4">
+      <c r="V10" s="3">
         <v>0.21736111111111112</v>
       </c>
       <c r="W10" s="1">
@@ -1282,8 +1279,8 @@
       <c r="Z10" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA10" s="6" t="s">
-        <v>86</v>
+      <c r="AA10" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="11">
@@ -1291,16 +1288,16 @@
         <v>5.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F11" s="1">
         <v>0.0</v>
@@ -1309,7 +1306,7 @@
         <v>0.0</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I11" s="1">
         <v>0.0</v>
@@ -1318,28 +1315,28 @@
         <v>0.0</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q11" s="1">
         <v>0.0</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S11" s="1">
         <v>1.0</v>
@@ -1347,10 +1344,10 @@
       <c r="T11" s="1">
         <v>3.0</v>
       </c>
-      <c r="U11" s="4">
+      <c r="U11" s="3">
         <v>0.2013888888888889</v>
       </c>
-      <c r="V11" s="4">
+      <c r="V11" s="3">
         <v>0.19375</v>
       </c>
       <c r="W11" s="1">
@@ -1365,8 +1362,8 @@
       <c r="Z11" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA11" s="6" t="s">
-        <v>89</v>
+      <c r="AA11" s="5" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="12">
@@ -1374,7 +1371,7 @@
         <v>4.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C12" s="1">
         <v>6.0</v>
@@ -1392,7 +1389,7 @@
         <v>1.0</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I12" s="1">
         <v>0.0</v>
@@ -1401,10 +1398,10 @@
         <v>0.0</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M12" s="1">
         <v>11.0</v>
@@ -1416,13 +1413,13 @@
         <v>0.0</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q12" s="1">
         <v>0.0</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S12" s="1">
         <v>0.0</v>
@@ -1430,10 +1427,10 @@
       <c r="T12" s="1">
         <v>3.0</v>
       </c>
-      <c r="U12" s="4">
+      <c r="U12" s="3">
         <v>0.15486111111111112</v>
       </c>
-      <c r="V12" s="4">
+      <c r="V12" s="3">
         <v>0.14583333333333334</v>
       </c>
       <c r="W12" s="1">
@@ -1448,8 +1445,8 @@
       <c r="Z12" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA12" s="6" t="s">
-        <v>91</v>
+      <c r="AA12" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="13">
@@ -1457,7 +1454,7 @@
         <v>7.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C13" s="1">
         <v>4.0</v>
@@ -1475,7 +1472,7 @@
         <v>0.0</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I13" s="1">
         <v>0.0</v>
@@ -1484,10 +1481,10 @@
         <v>0.0</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M13" s="1">
         <v>2.0</v>
@@ -1499,13 +1496,13 @@
         <v>1.0</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q13" s="1">
         <v>0.0</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S13" s="1">
         <v>0.0</v>
@@ -1513,10 +1510,10 @@
       <c r="T13" s="1">
         <v>3.0</v>
       </c>
-      <c r="U13" s="4">
+      <c r="U13" s="3">
         <v>0.13125</v>
       </c>
-      <c r="V13" s="4">
+      <c r="V13" s="3">
         <v>0.11597222222222223</v>
       </c>
       <c r="W13" s="1">
@@ -1531,8 +1528,8 @@
       <c r="Z13" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA13" s="6" t="s">
-        <v>94</v>
+      <c r="AA13" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="14">
@@ -1540,16 +1537,16 @@
         <v>5.0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F14" s="1">
         <v>0.0</v>
@@ -1558,7 +1555,7 @@
         <v>0.0</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I14" s="1">
         <v>0.0</v>
@@ -1567,28 +1564,28 @@
         <v>0.0</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q14" s="1">
         <v>1.0</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S14" s="1">
         <v>0.0</v>
@@ -1596,10 +1593,10 @@
       <c r="T14" s="1">
         <v>3.0</v>
       </c>
-      <c r="U14" s="4">
+      <c r="U14" s="3">
         <v>0.09930555555555555</v>
       </c>
-      <c r="V14" s="4">
+      <c r="V14" s="3">
         <v>0.08888888888888889</v>
       </c>
       <c r="W14" s="1">
@@ -1614,8 +1611,8 @@
       <c r="Z14" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA14" s="6" t="s">
-        <v>97</v>
+      <c r="AA14" s="5" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="15">
@@ -1623,7 +1620,7 @@
         <v>11.0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C15" s="1">
         <v>9.0</v>
@@ -1641,7 +1638,7 @@
         <v>1.0</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I15" s="1">
         <v>1.0</v>
@@ -1650,10 +1647,10 @@
         <v>0.0</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="1">
         <v>11.0</v>
@@ -1665,13 +1662,13 @@
         <v>0.0</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q15" s="1">
         <v>0.0</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S15" s="1">
         <v>0.0</v>
@@ -1679,10 +1676,10 @@
       <c r="T15" s="1">
         <v>3.0</v>
       </c>
-      <c r="U15" s="4">
+      <c r="U15" s="3">
         <v>0.08888888888888889</v>
       </c>
-      <c r="V15" s="4">
+      <c r="V15" s="3">
         <v>0.07291666666666667</v>
       </c>
       <c r="W15" s="1">
@@ -1697,8 +1694,8 @@
       <c r="Z15" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA15" s="6" t="s">
-        <v>100</v>
+      <c r="AA15" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="16">
@@ -1706,16 +1703,16 @@
         <v>3.0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F16" s="1">
         <v>0.0</v>
@@ -1724,7 +1721,7 @@
         <v>0.0</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I16" s="1">
         <v>0.0</v>
@@ -1733,28 +1730,28 @@
         <v>0.0</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q16" s="1">
         <v>0.0</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S16" s="1">
         <v>0.0</v>
@@ -1762,10 +1759,10 @@
       <c r="T16" s="1">
         <v>3.0</v>
       </c>
-      <c r="U16" s="4">
+      <c r="U16" s="3">
         <v>0.02013888888888889</v>
       </c>
-      <c r="V16" s="4">
+      <c r="V16" s="3">
         <v>0.014583333333333334</v>
       </c>
       <c r="W16" s="1">
@@ -1780,8 +1777,8 @@
       <c r="Z16" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA16" s="6" t="s">
-        <v>103</v>
+      <c r="AA16" s="5" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="17">
@@ -1789,7 +1786,7 @@
         <v>4.0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C17" s="1">
         <v>4.0</v>
@@ -1807,7 +1804,7 @@
         <v>1.0</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I17" s="1">
         <v>0.0</v>
@@ -1816,10 +1813,10 @@
         <v>0.0</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M17" s="1">
         <v>5.0</v>
@@ -1831,13 +1828,13 @@
         <v>1.0</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q17" s="1">
         <v>0.0</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S17" s="1">
         <v>0.0</v>
@@ -1845,10 +1842,10 @@
       <c r="T17" s="1">
         <v>3.0</v>
       </c>
-      <c r="U17" s="4">
+      <c r="U17" s="3">
         <v>0.014583333333333334</v>
       </c>
-      <c r="V17" s="4">
+      <c r="V17" s="3">
         <v>0.009722222222222222</v>
       </c>
       <c r="W17" s="1">
@@ -1863,8 +1860,8 @@
       <c r="Z17" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA17" s="6" t="s">
-        <v>106</v>
+      <c r="AA17" s="5" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="18">
@@ -1872,7 +1869,7 @@
         <v>10.0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C18" s="1">
         <v>4.0</v>
@@ -1890,7 +1887,7 @@
         <v>0.0</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I18" s="1">
         <v>0.0</v>
@@ -1899,10 +1896,10 @@
         <v>0.0</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M18" s="1">
         <v>11.0</v>
@@ -1914,13 +1911,13 @@
         <v>0.0</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q18" s="1">
         <v>1.0</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S18" s="1">
         <v>0.0</v>
@@ -1928,10 +1925,10 @@
       <c r="T18" s="1">
         <v>4.0</v>
       </c>
-      <c r="U18" s="4">
+      <c r="U18" s="3">
         <v>0.1361111111111111</v>
       </c>
-      <c r="V18" s="4">
+      <c r="V18" s="3">
         <v>0.11666666666666667</v>
       </c>
       <c r="W18" s="1">
@@ -1946,8 +1943,8 @@
       <c r="Z18" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA18" s="6" t="s">
-        <v>109</v>
+      <c r="AA18" s="5" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="19">
@@ -1955,7 +1952,7 @@
         <v>5.0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C19" s="1">
         <v>12.0</v>
@@ -1973,7 +1970,7 @@
         <v>0.0</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I19" s="1">
         <v>0.0</v>
@@ -1982,10 +1979,10 @@
         <v>0.0</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M19" s="1">
         <v>2.0</v>
@@ -1997,13 +1994,13 @@
         <v>1.0</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="1">
         <v>0.0</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S19" s="1">
         <v>0.0</v>
@@ -2011,10 +2008,10 @@
       <c r="T19" s="1">
         <v>4.0</v>
       </c>
-      <c r="U19" s="4">
+      <c r="U19" s="3">
         <v>0.09305555555555556</v>
       </c>
-      <c r="V19" s="4">
+      <c r="V19" s="3">
         <v>0.07916666666666666</v>
       </c>
       <c r="W19" s="1">
@@ -2029,8 +2026,8 @@
       <c r="Z19" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA19" s="6" t="s">
-        <v>112</v>
+      <c r="AA19" s="5" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="20">
@@ -2038,7 +2035,7 @@
         <v>7.0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C20" s="1">
         <v>9.0</v>
@@ -2056,7 +2053,7 @@
         <v>0.0</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I20" s="1">
         <v>0.0</v>
@@ -2065,10 +2062,10 @@
         <v>0.0</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M20" s="1">
         <v>11.0</v>
@@ -2080,13 +2077,13 @@
         <v>0.0</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q20" s="1">
         <v>0.0</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S20" s="1">
         <v>0.0</v>
@@ -2094,10 +2091,10 @@
       <c r="T20" s="1">
         <v>4.0</v>
       </c>
-      <c r="U20" s="4">
+      <c r="U20" s="3">
         <v>0.07013888888888889</v>
       </c>
-      <c r="V20" s="4">
+      <c r="V20" s="3">
         <v>0.05763888888888889</v>
       </c>
       <c r="W20" s="1">
@@ -2112,8 +2109,8 @@
       <c r="Z20" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA20" s="6" t="s">
-        <v>115</v>
+      <c r="AA20" s="5" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2159,12 +2156,12 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2174,22 +2171,22 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9">
@@ -2199,72 +2196,72 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="5" t="s">
-        <v>53</v>
+      <c r="A31" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/game_data_final/Olympiacos - Spandau.xlsx
+++ b/game_data_final/Olympiacos - Spandau.xlsx
@@ -14,84 +14,111 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="117">
   <si>
+    <t>Number of Passes</t>
+  </si>
+  <si>
+    <t>Passing Sequence</t>
+  </si>
+  <si>
+    <t>Shooter Number</t>
+  </si>
+  <si>
+    <t>Shooter Position</t>
+  </si>
+  <si>
+    <t>Shooter Hand</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Goal</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>Skip</t>
+  </si>
+  <si>
+    <t>Lob</t>
+  </si>
+  <si>
+    <t>Shot Position</t>
+  </si>
+  <si>
+    <t>Shot Location</t>
+  </si>
+  <si>
     <t>comments</t>
   </si>
   <si>
-    <t>Number of Passes</t>
-  </si>
-  <si>
-    <t>Passing Sequence</t>
-  </si>
-  <si>
     <t>If 3 had put it anywhere but the bar it would have gone in</t>
   </si>
   <si>
-    <t>Shooter Number</t>
-  </si>
-  <si>
-    <t>Shooter Position</t>
-  </si>
-  <si>
     <t>6_in happened first - people were still swimming to position so passed ball away, 1_in then happened with ball and 6 followed 4 in without ball</t>
   </si>
   <si>
-    <t>Shooter Hand</t>
-  </si>
-  <si>
-    <t>Rebound</t>
-  </si>
-  <si>
     <t>Last pass stolen</t>
   </si>
   <si>
-    <t>Goal</t>
-  </si>
-  <si>
-    <t>Block</t>
-  </si>
-  <si>
     <t>1 and 6 went in together again with 1 having ball</t>
   </si>
   <si>
-    <t>Skip</t>
-  </si>
-  <si>
-    <t>Lob</t>
-  </si>
-  <si>
-    <t>Shot Position</t>
-  </si>
-  <si>
     <t>camera cut away at start so I infered 3-&gt;6 as I didn't see it but ball was fouled at 3 and 5 recieved a pass from their right. Also dropped pass was stolen</t>
   </si>
   <si>
-    <t>Shot Location</t>
+    <t>timeout was delayed by a few seconds. Goalie block but was funneled by shotblockers</t>
+  </si>
+  <si>
+    <t>to 2 was tiped so 2 barley had time to control,on 6 _in everyone roated back to starting</t>
+  </si>
+  <si>
+    <t>first few passes were waiting for people to swim in postion</t>
+  </si>
+  <si>
+    <t>5 -&gt; 1 drop pass</t>
+  </si>
+  <si>
+    <t>yellow card. Was an ejection at the end of the 6-5 so counted that into the next one. 1_in happened no one moved. Passed around to 6_in then ejection happened here</t>
+  </si>
+  <si>
+    <t>Starteed a 3-3 but ball never went to that side and returned to 2-4 so counted numbers normal way</t>
   </si>
   <si>
     <t>Assisting Player Number</t>
   </si>
   <si>
+    <t>was a pass out of set into immediate timeout that I am not counting. are in 3-3 for last 5 seconds of 6-5 as become even</t>
+  </si>
+  <si>
     <t>Assisting Player Position</t>
   </si>
   <si>
-    <t>timeout was delayed by a few seconds. Goalie block but was funneled by shotblockers</t>
-  </si>
-  <si>
     <t>Assisting Player Hand</t>
   </si>
   <si>
+    <t>kicked out player (3) was rolled. This gave offense time to set up. Unable to see first pass. Very uncertain about assisting player number</t>
+  </si>
+  <si>
+    <t>kickout happened in transition so counting it as backcourt but was close to set up. May have missed passes due to camer cuts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ball was deflected with 8 seconds of 6-5 left but camera cut meant did not see and just became even </t>
+  </si>
+  <si>
     <t>Rotation Type</t>
   </si>
   <si>
-    <t>to 2 was tiped so 2 barley had time to control,on 6 _in everyone roated back to starting</t>
-  </si>
-  <si>
     <t>Timeout</t>
   </si>
   <si>
     <t>Team</t>
   </si>
   <si>
+    <t>I wonder if another thing we could look at is when timeouts are called</t>
+  </si>
+  <si>
     <t>Turnover</t>
   </si>
   <si>
@@ -104,85 +131,58 @@
     <t>End Time</t>
   </si>
   <si>
+    <t>---&gt; trust coaches gut more than data</t>
+  </si>
+  <si>
     <t>Dropped Ball</t>
   </si>
   <si>
     <t>Kickout Position</t>
   </si>
   <si>
-    <t>first few passes were waiting for people to swim in postion</t>
-  </si>
-  <si>
     <t>End 3-3</t>
   </si>
   <si>
-    <t>5 -&gt; 1 drop pass</t>
-  </si>
-  <si>
     <t>5m</t>
   </si>
   <si>
+    <t xml:space="preserve">Maybe data collection could also be framed in that we are finding data that coaches/players want to know </t>
+  </si>
+  <si>
     <t>Link to Play</t>
   </si>
   <si>
-    <t>yellow card. Was an ejection at the end of the 6-5 so counted that into the next one. 1_in happened no one moved. Passed around to 6_in then ejection happened here</t>
-  </si>
-  <si>
-    <t>Starteed a 3-3 but ball never went to that side and returned to 2-4 so counted numbers normal way</t>
-  </si>
-  <si>
-    <t>was a pass out of set into immediate timeout that I am not counting. are in 3-3 for last 5 seconds of 6-5 as become even</t>
-  </si>
-  <si>
-    <t>kicked out player (3) was rolled. This gave offense time to set up. Unable to see first pass. Very uncertain about assisting player number</t>
+    <t>i.e., When event X happens we do action Y for the reason Z</t>
+  </si>
+  <si>
+    <t>If this were the case in situation X we would measure A and B</t>
+  </si>
+  <si>
+    <t>Can't stand these cut away shots that cut out game footage</t>
   </si>
   <si>
     <t>[5,6,5,1,4,1,3]</t>
   </si>
   <si>
-    <t>kickout happened in transition so counting it as backcourt but was close to set up. May have missed passes due to camer cuts</t>
-  </si>
-  <si>
     <t>none</t>
   </si>
   <si>
-    <t xml:space="preserve">Ball was deflected with 8 seconds of 6-5 left but camera cut meant did not see and just became even </t>
-  </si>
-  <si>
     <t>not_on_cage</t>
   </si>
   <si>
     <t>right</t>
   </si>
   <si>
-    <t>I wonder if another thing we could look at is when timeouts are called</t>
-  </si>
-  <si>
     <t>4_center, 1_in, 5_center, 6_pocket, 3_in</t>
   </si>
   <si>
-    <t>---&gt; trust coaches gut more than data</t>
-  </si>
-  <si>
     <t>Spandau</t>
   </si>
   <si>
-    <t xml:space="preserve">Maybe data collection could also be framed in that we are finding data that coaches/players want to know </t>
-  </si>
-  <si>
-    <t>i.e., When event X happens we do action Y for the reason Z</t>
-  </si>
-  <si>
-    <t>If this were the case in situation X we would measure A and B</t>
-  </si>
-  <si>
-    <t>Can't stand these cut away shots that cut out game footage</t>
+    <t>Wonder how order of rotation and timing of when rotate affects</t>
   </si>
   <si>
     <t>https://youtu.be/Uq0E_9BUdbo?list=PLM0Gdq8tevj8Iw8wNjjC64NaKoxHBeZG-&amp;t=395</t>
-  </si>
-  <si>
-    <t>Wonder how order of rotation and timing of when rotate affects</t>
   </si>
   <si>
     <t>[5,6,4,1,4,6,5,4,2]</t>
@@ -418,11 +418,11 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -458,85 +458,85 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -544,7 +544,7 @@
         <v>6.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C2" s="1">
         <v>4.0</v>
@@ -562,7 +562,7 @@
         <v>0.0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I2" s="1">
         <v>0.0</v>
@@ -571,10 +571,10 @@
         <v>0.0</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="M2" s="1">
         <v>9.0</v>
@@ -586,13 +586,13 @@
         <v>1.0</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Q2" s="1">
         <v>0.0</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S2" s="1">
         <v>0.0</v>
@@ -600,10 +600,10 @@
       <c r="T2" s="1">
         <v>1.0</v>
       </c>
-      <c r="U2" s="3">
+      <c r="U2" s="4">
         <v>0.30069444444444443</v>
       </c>
-      <c r="V2" s="3">
+      <c r="V2" s="4">
         <v>0.2916666666666667</v>
       </c>
       <c r="W2" s="1">
@@ -619,7 +619,7 @@
         <v>0.0</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -683,10 +683,10 @@
       <c r="T3" s="1">
         <v>1.0</v>
       </c>
-      <c r="U3" s="3">
+      <c r="U3" s="4">
         <v>0.020833333333333332</v>
       </c>
-      <c r="V3" s="3">
+      <c r="V3" s="4">
         <v>0.010416666666666666</v>
       </c>
       <c r="W3" s="1">
@@ -713,13 +713,13 @@
         <v>64</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F4" s="1">
         <v>1.0</v>
@@ -728,7 +728,7 @@
         <v>0.0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I4" s="1">
         <v>0.0</v>
@@ -737,22 +737,22 @@
         <v>0.0</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="Q4" s="1">
         <v>0.0</v>
@@ -766,10 +766,10 @@
       <c r="T4" s="1">
         <v>1.0</v>
       </c>
-      <c r="U4" s="3">
+      <c r="U4" s="4">
         <v>0.010416666666666666</v>
       </c>
-      <c r="V4" s="3">
+      <c r="V4" s="4">
         <v>0.00625</v>
       </c>
       <c r="W4" s="1">
@@ -808,7 +808,7 @@
         <v>0.0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I5" s="1">
         <v>0.0</v>
@@ -817,10 +817,10 @@
         <v>0.0</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="M5" s="1">
         <v>2.0</v>
@@ -846,10 +846,10 @@
       <c r="T5" s="1">
         <v>2.0</v>
       </c>
-      <c r="U5" s="3">
+      <c r="U5" s="4">
         <v>0.24305555555555555</v>
       </c>
-      <c r="V5" s="3">
+      <c r="V5" s="4">
         <v>0.23472222222222222</v>
       </c>
       <c r="W5" s="1">
@@ -876,13 +876,13 @@
         <v>69</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F6" s="1">
         <v>0.0</v>
@@ -891,7 +891,7 @@
         <v>0.0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I6" s="1">
         <v>0.0</v>
@@ -900,19 +900,19 @@
         <v>0.0</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>70</v>
@@ -921,7 +921,7 @@
         <v>0.0</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S6" s="1">
         <v>1.0</v>
@@ -929,10 +929,10 @@
       <c r="T6" s="1">
         <v>2.0</v>
       </c>
-      <c r="U6" s="3">
+      <c r="U6" s="4">
         <v>0.15833333333333333</v>
       </c>
-      <c r="V6" s="3">
+      <c r="V6" s="4">
         <v>0.14583333333333334</v>
       </c>
       <c r="W6" s="1">
@@ -1012,10 +1012,10 @@
       <c r="T7" s="1">
         <v>2.0</v>
       </c>
-      <c r="U7" s="3">
+      <c r="U7" s="4">
         <v>0.1451388888888889</v>
       </c>
-      <c r="V7" s="3">
+      <c r="V7" s="4">
         <v>0.13055555555555556</v>
       </c>
       <c r="W7" s="1">
@@ -1087,7 +1087,7 @@
         <v>0.0</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S8" s="1">
         <v>0.0</v>
@@ -1095,10 +1095,10 @@
       <c r="T8" s="1">
         <v>2.0</v>
       </c>
-      <c r="U8" s="3">
+      <c r="U8" s="4">
         <v>0.018055555555555554</v>
       </c>
-      <c r="V8" s="3">
+      <c r="V8" s="4">
         <v>0.004861111111111111</v>
       </c>
       <c r="W8" s="1">
@@ -1140,7 +1140,7 @@
         <v>1.0</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I9" s="1">
         <v>0.0</v>
@@ -1170,7 +1170,7 @@
         <v>0.0</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S9" s="1">
         <v>0.0</v>
@@ -1178,10 +1178,10 @@
       <c r="T9" s="1">
         <v>3.0</v>
       </c>
-      <c r="U9" s="3">
+      <c r="U9" s="4">
         <v>0.30694444444444446</v>
       </c>
-      <c r="V9" s="3">
+      <c r="V9" s="4">
         <v>0.2916666666666667</v>
       </c>
       <c r="W9" s="1">
@@ -1235,7 +1235,7 @@
         <v>85</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="M10" s="1">
         <v>8.0</v>
@@ -1253,7 +1253,7 @@
         <v>0.0</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S10" s="1">
         <v>0.0</v>
@@ -1261,10 +1261,10 @@
       <c r="T10" s="1">
         <v>3.0</v>
       </c>
-      <c r="U10" s="3">
+      <c r="U10" s="4">
         <v>0.23194444444444445</v>
       </c>
-      <c r="V10" s="3">
+      <c r="V10" s="4">
         <v>0.21736111111111112</v>
       </c>
       <c r="W10" s="1">
@@ -1291,13 +1291,13 @@
         <v>88</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F11" s="1">
         <v>0.0</v>
@@ -1306,7 +1306,7 @@
         <v>0.0</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I11" s="1">
         <v>0.0</v>
@@ -1315,19 +1315,19 @@
         <v>0.0</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>89</v>
@@ -1344,10 +1344,10 @@
       <c r="T11" s="1">
         <v>3.0</v>
       </c>
-      <c r="U11" s="3">
+      <c r="U11" s="4">
         <v>0.2013888888888889</v>
       </c>
-      <c r="V11" s="3">
+      <c r="V11" s="4">
         <v>0.19375</v>
       </c>
       <c r="W11" s="1">
@@ -1389,7 +1389,7 @@
         <v>1.0</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I12" s="1">
         <v>0.0</v>
@@ -1413,13 +1413,13 @@
         <v>0.0</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="Q12" s="1">
         <v>0.0</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S12" s="1">
         <v>0.0</v>
@@ -1427,10 +1427,10 @@
       <c r="T12" s="1">
         <v>3.0</v>
       </c>
-      <c r="U12" s="3">
+      <c r="U12" s="4">
         <v>0.15486111111111112</v>
       </c>
-      <c r="V12" s="3">
+      <c r="V12" s="4">
         <v>0.14583333333333334</v>
       </c>
       <c r="W12" s="1">
@@ -1484,7 +1484,7 @@
         <v>59</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="M13" s="1">
         <v>2.0</v>
@@ -1510,10 +1510,10 @@
       <c r="T13" s="1">
         <v>3.0</v>
       </c>
-      <c r="U13" s="3">
+      <c r="U13" s="4">
         <v>0.13125</v>
       </c>
-      <c r="V13" s="3">
+      <c r="V13" s="4">
         <v>0.11597222222222223</v>
       </c>
       <c r="W13" s="1">
@@ -1540,13 +1540,13 @@
         <v>96</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F14" s="1">
         <v>0.0</v>
@@ -1555,7 +1555,7 @@
         <v>0.0</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I14" s="1">
         <v>0.0</v>
@@ -1564,19 +1564,19 @@
         <v>0.0</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>97</v>
@@ -1585,7 +1585,7 @@
         <v>1.0</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S14" s="1">
         <v>0.0</v>
@@ -1593,10 +1593,10 @@
       <c r="T14" s="1">
         <v>3.0</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="4">
         <v>0.09930555555555555</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="4">
         <v>0.08888888888888889</v>
       </c>
       <c r="W14" s="1">
@@ -1638,7 +1638,7 @@
         <v>1.0</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I15" s="1">
         <v>1.0</v>
@@ -1668,7 +1668,7 @@
         <v>0.0</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S15" s="1">
         <v>0.0</v>
@@ -1676,10 +1676,10 @@
       <c r="T15" s="1">
         <v>3.0</v>
       </c>
-      <c r="U15" s="3">
+      <c r="U15" s="4">
         <v>0.08888888888888889</v>
       </c>
-      <c r="V15" s="3">
+      <c r="V15" s="4">
         <v>0.07291666666666667</v>
       </c>
       <c r="W15" s="1">
@@ -1706,13 +1706,13 @@
         <v>102</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F16" s="1">
         <v>0.0</v>
@@ -1721,7 +1721,7 @@
         <v>0.0</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I16" s="1">
         <v>0.0</v>
@@ -1730,19 +1730,19 @@
         <v>0.0</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>103</v>
@@ -1759,10 +1759,10 @@
       <c r="T16" s="1">
         <v>3.0</v>
       </c>
-      <c r="U16" s="3">
+      <c r="U16" s="4">
         <v>0.02013888888888889</v>
       </c>
-      <c r="V16" s="3">
+      <c r="V16" s="4">
         <v>0.014583333333333334</v>
       </c>
       <c r="W16" s="1">
@@ -1804,7 +1804,7 @@
         <v>1.0</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I17" s="1">
         <v>0.0</v>
@@ -1816,7 +1816,7 @@
         <v>85</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="M17" s="1">
         <v>5.0</v>
@@ -1842,10 +1842,10 @@
       <c r="T17" s="1">
         <v>3.0</v>
       </c>
-      <c r="U17" s="3">
+      <c r="U17" s="4">
         <v>0.014583333333333334</v>
       </c>
-      <c r="V17" s="3">
+      <c r="V17" s="4">
         <v>0.009722222222222222</v>
       </c>
       <c r="W17" s="1">
@@ -1899,7 +1899,7 @@
         <v>85</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="M18" s="1">
         <v>11.0</v>
@@ -1917,7 +1917,7 @@
         <v>1.0</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S18" s="1">
         <v>0.0</v>
@@ -1925,10 +1925,10 @@
       <c r="T18" s="1">
         <v>4.0</v>
       </c>
-      <c r="U18" s="3">
+      <c r="U18" s="4">
         <v>0.1361111111111111</v>
       </c>
-      <c r="V18" s="3">
+      <c r="V18" s="4">
         <v>0.11666666666666667</v>
       </c>
       <c r="W18" s="1">
@@ -1979,10 +1979,10 @@
         <v>0.0</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="M19" s="1">
         <v>2.0</v>
@@ -2008,10 +2008,10 @@
       <c r="T19" s="1">
         <v>4.0</v>
       </c>
-      <c r="U19" s="3">
+      <c r="U19" s="4">
         <v>0.09305555555555556</v>
       </c>
-      <c r="V19" s="3">
+      <c r="V19" s="4">
         <v>0.07916666666666666</v>
       </c>
       <c r="W19" s="1">
@@ -2065,7 +2065,7 @@
         <v>85</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="M20" s="1">
         <v>11.0</v>
@@ -2083,7 +2083,7 @@
         <v>0.0</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S20" s="1">
         <v>0.0</v>
@@ -2091,10 +2091,10 @@
       <c r="T20" s="1">
         <v>4.0</v>
       </c>
-      <c r="U20" s="3">
+      <c r="U20" s="4">
         <v>0.07013888888888889</v>
       </c>
-      <c r="V20" s="3">
+      <c r="V20" s="4">
         <v>0.05763888888888889</v>
       </c>
       <c r="W20" s="1">
@@ -2151,117 +2151,117 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="s">
-        <v>54</v>
+      <c r="A31" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
